--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N2">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O2">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P2">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q2">
-        <v>441.13469630439</v>
+        <v>402.0496384139078</v>
       </c>
       <c r="R2">
-        <v>1764.53878521756</v>
+        <v>1608.198553655631</v>
       </c>
       <c r="S2">
-        <v>0.01707898195765479</v>
+        <v>0.007786457607816861</v>
       </c>
       <c r="T2">
-        <v>0.01001791445003943</v>
+        <v>0.005220806828188016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P3">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q3">
-        <v>16.209965666246</v>
+        <v>11.2972245514845</v>
       </c>
       <c r="R3">
-        <v>97.25979399747601</v>
+        <v>67.783347308907</v>
       </c>
       <c r="S3">
-        <v>0.0006275854369817885</v>
+        <v>0.0002187922874477556</v>
       </c>
       <c r="T3">
-        <v>0.0005521784524419171</v>
+        <v>0.0002200497952590249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N4">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O4">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P4">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q4">
-        <v>5.387980862308</v>
+        <v>0.355904231046</v>
       </c>
       <c r="R4">
-        <v>32.327885173848</v>
+        <v>2.135425386276</v>
       </c>
       <c r="S4">
-        <v>0.0002086012020964488</v>
+        <v>6.892763834870978E-06</v>
       </c>
       <c r="T4">
-        <v>0.0001835369053576099</v>
+        <v>6.932379967892367E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N5">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O5">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P5">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q5">
-        <v>157.958929730712</v>
+        <v>151.846424020962</v>
       </c>
       <c r="R5">
-        <v>631.8357189228481</v>
+        <v>607.385696083848</v>
       </c>
       <c r="S5">
-        <v>0.006115541882155155</v>
+        <v>0.002940795440588325</v>
       </c>
       <c r="T5">
-        <v>0.00358715616322813</v>
+        <v>0.001971798433875045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N6">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O6">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P6">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q6">
-        <v>291.64191401862</v>
+        <v>1.002121981137</v>
       </c>
       <c r="R6">
-        <v>1749.85148411172</v>
+        <v>6.012731886821999</v>
       </c>
       <c r="S6">
-        <v>0.01129121565215307</v>
+        <v>1.940800234211771E-05</v>
       </c>
       <c r="T6">
-        <v>0.009934529416390458</v>
+        <v>1.951954975921837E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N7">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O7">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P7">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q7">
-        <v>6.144255139637999</v>
+        <v>0.8794316210625001</v>
       </c>
       <c r="R7">
-        <v>36.865530837828</v>
+        <v>5.276589726375</v>
       </c>
       <c r="S7">
-        <v>0.0002378811359709881</v>
+        <v>1.703186965517724E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002092987341409535</v>
+        <v>1.71297602590086E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N8">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O8">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P8">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q8">
-        <v>1160.181825831748</v>
+        <v>1517.207043596885</v>
       </c>
       <c r="R8">
-        <v>6961.09095499049</v>
+        <v>9103.242261581307</v>
       </c>
       <c r="S8">
-        <v>0.04491762864489569</v>
+        <v>0.02938360639709415</v>
       </c>
       <c r="T8">
-        <v>0.03952058988459122</v>
+        <v>0.02955248855925185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P9">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q9">
         <v>42.6321205765199</v>
@@ -1013,10 +1013,10 @@
         <v>383.689085188679</v>
       </c>
       <c r="S9">
-        <v>0.001650546248668995</v>
+        <v>0.0008256522774400936</v>
       </c>
       <c r="T9">
-        <v>0.002178339440898238</v>
+        <v>0.001245596565984236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N10">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O10">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P10">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q10">
-        <v>14.17036004364911</v>
+        <v>1.343069000930222</v>
       </c>
       <c r="R10">
-        <v>127.533240392842</v>
+        <v>12.087621008372</v>
       </c>
       <c r="S10">
-        <v>0.0005486200145815805</v>
+        <v>2.601109127065034E-05</v>
       </c>
       <c r="T10">
-        <v>0.0007240515779505969</v>
+        <v>3.924088487308192E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N11">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O11">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P11">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q11">
-        <v>415.4311167012654</v>
+        <v>573.0199509156761</v>
       </c>
       <c r="R11">
-        <v>2492.586700207592</v>
+        <v>3438.119705494056</v>
       </c>
       <c r="S11">
-        <v>0.01608384152556781</v>
+        <v>0.0110976236015037</v>
       </c>
       <c r="T11">
-        <v>0.01415130147955743</v>
+        <v>0.01116140714948982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N12">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O12">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P12">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q12">
-        <v>767.01663036207</v>
+        <v>3.781688585326</v>
       </c>
       <c r="R12">
-        <v>6903.149673258629</v>
+        <v>34.035197267934</v>
       </c>
       <c r="S12">
-        <v>0.02969583508374924</v>
+        <v>7.323960785481761E-05</v>
       </c>
       <c r="T12">
-        <v>0.039191636614548</v>
+        <v>0.0001104908283192037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N13">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O13">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P13">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q13">
-        <v>16.15935723487633</v>
+        <v>3.318694316208334</v>
       </c>
       <c r="R13">
-        <v>145.434215113887</v>
+        <v>29.868248845875</v>
       </c>
       <c r="S13">
-        <v>0.0006256260796845529</v>
+        <v>6.427284130487373E-05</v>
       </c>
       <c r="T13">
-        <v>0.000825681780035181</v>
+        <v>9.696337381108866E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N14">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O14">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P14">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q14">
-        <v>7312.546752086656</v>
+        <v>16983.75483416599</v>
       </c>
       <c r="R14">
-        <v>43875.28051251993</v>
+        <v>101902.529004996</v>
       </c>
       <c r="S14">
-        <v>0.2831127433177881</v>
+        <v>0.3289227856527619</v>
       </c>
       <c r="T14">
-        <v>0.2490955768885031</v>
+        <v>0.3308132680691567</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P15">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q15">
-        <v>268.7073421727671</v>
+        <v>477.2278687921747</v>
       </c>
       <c r="R15">
-        <v>2418.366079554903</v>
+        <v>4295.050819129572</v>
       </c>
       <c r="S15">
-        <v>0.01040328019379235</v>
+        <v>0.009242427338769406</v>
       </c>
       <c r="T15">
-        <v>0.01372992461079351</v>
+        <v>0.01394332223030208</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N16">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O16">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P16">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q16">
-        <v>89.314810839066</v>
+        <v>15.03443760918089</v>
       </c>
       <c r="R16">
-        <v>803.833297551594</v>
+        <v>135.309938482628</v>
       </c>
       <c r="S16">
-        <v>0.00345791445481587</v>
+        <v>0.0002911705419337717</v>
       </c>
       <c r="T16">
-        <v>0.004563647608330744</v>
+        <v>0.0004392660652168915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N17">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O17">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P17">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q17">
-        <v>2618.433934673724</v>
+        <v>6414.437899237325</v>
       </c>
       <c r="R17">
-        <v>15710.60360804234</v>
+        <v>38486.62739542395</v>
       </c>
       <c r="S17">
-        <v>0.1013753538369286</v>
+        <v>0.1242278166880638</v>
       </c>
       <c r="T17">
-        <v>0.08919468601221126</v>
+        <v>0.124941815575705</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N18">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O18">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P18">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q18">
-        <v>4834.45339710399</v>
+        <v>42.332568955174</v>
       </c>
       <c r="R18">
-        <v>43510.08057393591</v>
+        <v>380.993120596566</v>
       </c>
       <c r="S18">
-        <v>0.1871708188813356</v>
+        <v>0.0008198508893076129</v>
       </c>
       <c r="T18">
-        <v>0.2470222069107254</v>
+        <v>0.001236844468602316</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N19">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O19">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P19">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q19">
-        <v>101.851324191351</v>
+        <v>37.14976863170834</v>
       </c>
       <c r="R19">
-        <v>916.6619177221589</v>
+        <v>334.347917685375</v>
       </c>
       <c r="S19">
-        <v>0.003943278419947812</v>
+        <v>0.0007194760819389293</v>
       </c>
       <c r="T19">
-        <v>0.005204215825846774</v>
+        <v>0.001085416901833649</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N20">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O20">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P20">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q20">
-        <v>741.5304492920625</v>
+        <v>1511.327532290972</v>
       </c>
       <c r="R20">
-        <v>2966.12179716825</v>
+        <v>6045.310129163887</v>
       </c>
       <c r="S20">
-        <v>0.02870911145871877</v>
+        <v>0.02926973845352684</v>
       </c>
       <c r="T20">
-        <v>0.01683972869361728</v>
+        <v>0.01962531077341794</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P21">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q21">
-        <v>27.2483285132625</v>
+        <v>42.46691172385701</v>
       </c>
       <c r="R21">
-        <v>163.489971079575</v>
+        <v>254.801470343142</v>
       </c>
       <c r="S21">
-        <v>0.001054946969605732</v>
+        <v>0.0008224526930982933</v>
       </c>
       <c r="T21">
-        <v>0.0009281907303118106</v>
+        <v>0.0008271797367159412</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N22">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O22">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P22">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q22">
-        <v>9.056988495974998</v>
+        <v>1.337864312876</v>
       </c>
       <c r="R22">
-        <v>54.34193097584999</v>
+        <v>8.027185877256001</v>
       </c>
       <c r="S22">
-        <v>0.0003506505935926416</v>
+        <v>2.591029256565464E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003085184752676839</v>
+        <v>2.605921187023187E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N23">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O23">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P23">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q23">
-        <v>265.52288249865</v>
+        <v>570.799372455972</v>
       </c>
       <c r="R23">
-        <v>1062.0915299946</v>
+        <v>2283.197489823888</v>
       </c>
       <c r="S23">
-        <v>0.01027999057324163</v>
+        <v>0.01105461786691449</v>
       </c>
       <c r="T23">
-        <v>0.006029871473913523</v>
+        <v>0.00741210282640684</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N24">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O24">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P24">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q24">
-        <v>490.2388348646249</v>
+        <v>3.767033709522</v>
       </c>
       <c r="R24">
-        <v>2941.43300918775</v>
+        <v>22.602202257132</v>
       </c>
       <c r="S24">
-        <v>0.01898009901678032</v>
+        <v>7.29557882507363E-05</v>
       </c>
       <c r="T24">
-        <v>0.01669956166077231</v>
+        <v>7.337510135666336E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N25">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O25">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P25">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q25">
-        <v>10.3282564541625</v>
+        <v>3.305833645125</v>
       </c>
       <c r="R25">
-        <v>61.96953872497499</v>
+        <v>19.83500187075</v>
       </c>
       <c r="S25">
-        <v>0.000399869035721817</v>
+        <v>6.402376989520028E-05</v>
       </c>
       <c r="T25">
-        <v>0.0003518231181178951</v>
+        <v>6.439174626077186E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N26">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O26">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P26">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q26">
-        <v>220.2053755453617</v>
+        <v>6376.821877561927</v>
       </c>
       <c r="R26">
-        <v>1321.23225327217</v>
+        <v>38260.93126537156</v>
       </c>
       <c r="S26">
-        <v>0.008525476838309631</v>
+        <v>0.1234993107271937</v>
       </c>
       <c r="T26">
-        <v>0.007501105553926082</v>
+        <v>0.1242091225296911</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.536709</v>
       </c>
       <c r="O27">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P27">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q27">
-        <v>8.091681763000778</v>
+        <v>179.1828217029036</v>
       </c>
       <c r="R27">
-        <v>72.82513586700701</v>
+        <v>1612.645395326132</v>
       </c>
       <c r="S27">
-        <v>0.0003132777539266964</v>
+        <v>0.00347021688849852</v>
       </c>
       <c r="T27">
-        <v>0.0004134542051668322</v>
+        <v>0.005235242919617431</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N28">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O28">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P28">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q28">
-        <v>2.689569329176222</v>
+        <v>5.64491960695289</v>
       </c>
       <c r="R28">
-        <v>24.206123962586</v>
+        <v>50.804276462576</v>
       </c>
       <c r="S28">
-        <v>0.000104129433553253</v>
+        <v>0.0001093246281540554</v>
       </c>
       <c r="T28">
-        <v>0.000137426777498879</v>
+        <v>0.0001649294565363508</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N29">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O29">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P29">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q29">
-        <v>78.84985183322266</v>
+        <v>2408.403108000208</v>
       </c>
       <c r="R29">
-        <v>473.099110999336</v>
+        <v>14450.41864800125</v>
       </c>
       <c r="S29">
-        <v>0.003052752839677195</v>
+        <v>0.04664331692215568</v>
       </c>
       <c r="T29">
-        <v>0.00268595196664759</v>
+        <v>0.04691139920264797</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N30">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O30">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P30">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q30">
-        <v>145.58165054631</v>
+        <v>15.894438802408</v>
       </c>
       <c r="R30">
-        <v>1310.23485491679</v>
+        <v>143.049949221672</v>
       </c>
       <c r="S30">
-        <v>0.00563634283105763</v>
+        <v>0.0003078261043169443</v>
       </c>
       <c r="T30">
-        <v>0.00743866941094064</v>
+        <v>0.0004643930004605494</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N31">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O31">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P31">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q31">
-        <v>3.067085907785666</v>
+        <v>13.94847368383333</v>
       </c>
       <c r="R31">
-        <v>27.603773170071</v>
+        <v>125.5362631545</v>
       </c>
       <c r="S31">
-        <v>0.0001187453748718595</v>
+        <v>0.0002701387805281517</v>
       </c>
       <c r="T31">
-        <v>0.0001567164408244898</v>
+        <v>0.0004075371031595671</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N32">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O32">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P32">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q32">
-        <v>2529.830800826141</v>
+        <v>9794.134388210707</v>
       </c>
       <c r="R32">
-        <v>15178.98480495685</v>
+        <v>58764.80632926424</v>
       </c>
       <c r="S32">
-        <v>0.09794499268635076</v>
+        <v>0.1896820813467642</v>
       </c>
       <c r="T32">
-        <v>0.08617649693415921</v>
+        <v>0.1907722783630019</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.536709</v>
       </c>
       <c r="O33">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P33">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q33">
-        <v>92.96133531629278</v>
+        <v>275.2061559053628</v>
       </c>
       <c r="R33">
-        <v>836.652017846635</v>
+        <v>2476.855403148265</v>
       </c>
       <c r="S33">
-        <v>0.003599093387863859</v>
+        <v>0.00532989178853896</v>
       </c>
       <c r="T33">
-        <v>0.004749971159294775</v>
+        <v>0.008040787980934749</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N34">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O34">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P34">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q34">
-        <v>30.89913365219221</v>
+        <v>8.670008713224444</v>
       </c>
       <c r="R34">
-        <v>278.0922028697299</v>
+        <v>78.03007841901999</v>
       </c>
       <c r="S34">
-        <v>0.001196291632859492</v>
+        <v>0.0001679112449180347</v>
       </c>
       <c r="T34">
-        <v>0.001578828371986436</v>
+        <v>0.0002533144712063332</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N35">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O35">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P35">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q35">
-        <v>905.8670039922465</v>
+        <v>3699.056387906659</v>
       </c>
       <c r="R35">
-        <v>5435.202023953479</v>
+        <v>22194.33832743996</v>
       </c>
       <c r="S35">
-        <v>0.03507156962902538</v>
+        <v>0.07163927784386492</v>
       </c>
       <c r="T35">
-        <v>0.03085757556070592</v>
+        <v>0.07205102431140831</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N36">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O36">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P36">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q36">
-        <v>1672.515680759549</v>
+        <v>24.41220291941</v>
       </c>
       <c r="R36">
-        <v>15052.64112683595</v>
+        <v>219.70982627469</v>
       </c>
       <c r="S36">
-        <v>0.06475315901217812</v>
+        <v>0.0004727888424307398</v>
       </c>
       <c r="T36">
-        <v>0.08545919892443457</v>
+        <v>0.0007132592916636391</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N37">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O37">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P37">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q37">
-        <v>35.23623516946166</v>
+        <v>21.42340312979167</v>
       </c>
       <c r="R37">
-        <v>317.1261165251549</v>
+        <v>192.810628168125</v>
       </c>
       <c r="S37">
-        <v>0.001364206963896728</v>
+        <v>0.0004149050374560005</v>
       </c>
       <c r="T37">
-        <v>0.001800437786824013</v>
+        <v>0.0006259345537895068</v>
       </c>
     </row>
   </sheetData>
